--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -650,10 +650,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1162,7 +1162,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1262,7 +1262,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1362,7 +1362,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1454,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1462,15 +1462,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>2.882154252319693E-5</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.50507418939260773</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1502,18 +1502,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,7 +1706,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1956,7 +1956,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2245,7 +2245,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2367,7 +2367,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2479,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2488,27 +2488,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2504,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2524,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +2520,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2528,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2548,7 +2536,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2556,99 +2544,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2734,10 +2719,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2796,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -78,9 +83,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -206,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -214,7 +216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -234,7 +235,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,6 +310,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -635,31 +639,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -668,7 +672,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -677,7 +681,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -687,7 +691,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -697,94 +701,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -796,18 +800,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -873,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -941,7 +945,7 @@
         <v>-1.4040833620304658</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>-0.7266371555834602</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1151,18 +1155,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1177,7 +1181,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1251,18 +1255,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1277,7 +1281,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1294,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1351,18 +1355,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1377,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>0.62781151303093019</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1451,72 +1455,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>2.882154252319693E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.50507418939260773</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>1.4160708823715787E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>1.2554580480938302E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>1.4483111732145924E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1566,29 +1570,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1596,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1620,71 +1624,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1697,244 +1701,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1947,264 +1951,264 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2216,36 +2220,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2260,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2337,37 +2341,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2399,71 +2403,71 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>1.008</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>1.004</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>1.0009999999999999</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>1.0049999999999999</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>1.002</v>
       </c>
     </row>
@@ -2476,19 +2480,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2544,59 +2548,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -2609,7 +2613,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2617,85 +2621,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2708,24 +2701,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2733,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2741,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2749,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2757,10 +2750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2770,18 +2763,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2847,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2915,7 +2908,7 @@
         <v>-1.4040833620304658</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2983,7 +2976,7 @@
         <v>-0.7266371555834602</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +3044,7 @@
         <v>0.58479164020456298</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -885,64 +885,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8412929983422673E-2</v>
+        <v>-9.8412929983422701E-2</v>
       </c>
       <c r="D2">
-        <v>-0.1942080752484934</v>
+        <v>-0.19420807524849301</v>
       </c>
       <c r="E2">
-        <v>-0.28728564272344731</v>
+        <v>-0.28728564272344698</v>
       </c>
       <c r="F2">
-        <v>-0.37755304896864333</v>
+        <v>-0.377553048968643</v>
       </c>
       <c r="G2">
-        <v>-0.46492383387554881</v>
+        <v>-0.46492383387554898</v>
       </c>
       <c r="H2">
-        <v>-0.54932159929017654</v>
+        <v>-0.54932159929017699</v>
       </c>
       <c r="I2">
-        <v>-0.63067876553525815</v>
+        <v>-0.63067876553525803</v>
       </c>
       <c r="J2">
-        <v>-0.70894012441581555</v>
+        <v>-0.708940124415816</v>
       </c>
       <c r="K2">
-        <v>-0.78406148923502406</v>
+        <v>-0.78406148923502395</v>
       </c>
       <c r="L2">
-        <v>-0.85601271886286734</v>
+        <v>-0.85601271886286701</v>
       </c>
       <c r="M2">
-        <v>-0.92477614172958511</v>
+        <v>-0.924776141729585</v>
       </c>
       <c r="N2">
-        <v>-0.9903489446517677</v>
+        <v>-0.99034894465176804</v>
       </c>
       <c r="O2">
-        <v>-1.0527412974291928</v>
+        <v>-1.0527412974291901</v>
       </c>
       <c r="P2">
-        <v>-1.1119780621753501</v>
+        <v>-1.1119780621753499</v>
       </c>
       <c r="Q2">
-        <v>-1.1680966096192553</v>
+        <v>-1.16809660961926</v>
       </c>
       <c r="R2">
-        <v>-1.2211478782261593</v>
+        <v>-1.22114787822616</v>
       </c>
       <c r="S2">
-        <v>-1.2711939402945136</v>
+        <v>-1.27119394029451</v>
       </c>
       <c r="T2">
-        <v>-1.3183085075595047</v>
+        <v>-1.3183085075595</v>
       </c>
       <c r="U2">
-        <v>-1.3625743578914409</v>
+        <v>-1.36257435789144</v>
       </c>
       <c r="V2">
-        <v>-1.4040833620304658</v>
+        <v>-1.40408336203047</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -953,64 +953,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696091223346308E-2</v>
+        <v>-6.1696091223346301E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025258602885318</v>
+        <v>-0.120252586028853</v>
       </c>
       <c r="E3">
-        <v>-0.17570925823743866</v>
+        <v>-0.17570925823743899</v>
       </c>
       <c r="F3">
-        <v>-0.22811908883778487</v>
+        <v>-0.22811908883778501</v>
       </c>
       <c r="G3">
-        <v>-0.2775459525177133</v>
+        <v>-0.27754595251771302</v>
       </c>
       <c r="H3">
-        <v>-0.32406507544725888</v>
+        <v>-0.32406507544725899</v>
       </c>
       <c r="I3">
-        <v>-0.36776047794996308</v>
+        <v>-0.36776047794996303</v>
       </c>
       <c r="J3">
-        <v>-0.40872503938046645</v>
+        <v>-0.408725039380466</v>
       </c>
       <c r="K3">
-        <v>-0.44705795146529365</v>
+        <v>-0.44705795146529398</v>
       </c>
       <c r="L3">
-        <v>-0.48286454776000765</v>
+        <v>-0.48286454776000798</v>
       </c>
       <c r="M3">
-        <v>-0.51625390018963269</v>
+        <v>-0.51625390018963302</v>
       </c>
       <c r="N3">
-        <v>-0.54733855698942557</v>
+        <v>-0.54733855698942602</v>
       </c>
       <c r="O3">
-        <v>-0.5762323880658814</v>
+        <v>-0.57623238806588095</v>
       </c>
       <c r="P3">
-        <v>-0.60305034309890171</v>
+        <v>-0.60305034309890204</v>
       </c>
       <c r="Q3">
         <v>-0.62790661236276901</v>
       </c>
       <c r="R3">
-        <v>-0.65091447676253389</v>
+        <v>-0.650914476762534</v>
       </c>
       <c r="S3">
-        <v>-0.67218481027537891</v>
+        <v>-0.67218481027537902</v>
       </c>
       <c r="T3">
-        <v>-0.6918260556745639</v>
+        <v>-0.69182605567456401</v>
       </c>
       <c r="U3">
         <v>-0.70994306056866197</v>
       </c>
       <c r="V3">
-        <v>-0.7266371555834602</v>
+        <v>-0.72663715558345998</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1089,64 +1089,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.9083491483235436E-2</v>
+        <v>-3.9083491483235401E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6102655107033845E-2</v>
+        <v>-7.6102655107033804E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11112396528749263</v>
+        <v>-0.11112396528749301</v>
       </c>
       <c r="F5">
-        <v>-0.14421621345827279</v>
+        <v>-0.14421621345827301</v>
       </c>
       <c r="G5">
-        <v>-0.17544960681616664</v>
+        <v>-0.175449606816167</v>
       </c>
       <c r="H5">
-        <v>-0.20489581238941018</v>
+        <v>-0.20489581238940999</v>
       </c>
       <c r="I5">
-        <v>-0.23262707828520232</v>
+        <v>-0.23262707828520199</v>
       </c>
       <c r="J5">
-        <v>-0.25871623367926971</v>
+        <v>-0.25871623367926999</v>
       </c>
       <c r="K5">
-        <v>-0.28323589661767029</v>
+        <v>-0.28323589661767001</v>
       </c>
       <c r="L5">
-        <v>-0.30625846418724856</v>
+        <v>-0.306258464187249</v>
       </c>
       <c r="M5">
-        <v>-0.32785542290350661</v>
+        <v>-0.327855422903507</v>
       </c>
       <c r="N5">
-        <v>-0.34809735264285985</v>
+        <v>-0.34809735264286001</v>
       </c>
       <c r="O5">
         <v>-0.36705334655365301</v>
       </c>
       <c r="P5">
-        <v>-0.38479104240324286</v>
+        <v>-0.38479104240324302</v>
       </c>
       <c r="Q5">
-        <v>-0.40137615100217511</v>
+        <v>-0.401376151002175</v>
       </c>
       <c r="R5">
-        <v>-0.41687252044271228</v>
+        <v>-0.416872520442712</v>
       </c>
       <c r="S5">
-        <v>-0.43134176597315432</v>
+        <v>-0.43134176597315399</v>
       </c>
       <c r="T5">
-        <v>-0.44484336659611362</v>
+        <v>-0.44484336659611401</v>
       </c>
       <c r="U5">
-        <v>-0.45743438537443554</v>
+        <v>-0.45743438537443598</v>
       </c>
       <c r="V5">
-        <v>-0.46916958492083255</v>
+        <v>-0.46916958492083299</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.4812233485696007</v>
+        <v>0.48122334856960097</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24686213681952676</v>
+        <v>0.24686213681952701</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6960101660571415</v>
+        <v>0.69601016605714106</v>
       </c>
       <c r="E4">
-        <v>0.62781151303093019</v>
+        <v>0.62781151303092997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97491628418018572</v>
+        <v>-0.97491628418018605</v>
       </c>
       <c r="E5">
-        <v>0.95335675496805927</v>
+        <v>0.95335675496805905</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.882154252319693E-5</v>
+        <v>2.88215425231969E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.50507418939260773</v>
+        <v>0.50507418939260795</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7.0803544118578935E-6</v>
+        <v>7.0803544118578901E-6</v>
       </c>
       <c r="C8">
-        <v>1.4160708823715787E-5</v>
+        <v>1.4160708823715801E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,10 +1536,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.2772902404691512E-7</v>
+        <v>6.2772902404691501E-7</v>
       </c>
       <c r="C9">
-        <v>1.2554580480938302E-6</v>
+        <v>1.25545804809383E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.4483111732145924E-4</v>
+        <v>1.4483111732145899E-4</v>
       </c>
       <c r="C10">
-        <v>1.4483111732145924E-4</v>
+        <v>1.4483111732145899E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.0186139513514077E-5</v>
+        <v>1.0186139513514099E-5</v>
       </c>
       <c r="C11">
-        <v>1.1643952402942169E-4</v>
+        <v>1.16439524029422E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1731,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="15">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="17">
         <v>1.2</v>
@@ -1755,40 +1755,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1796,40 +1796,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1837,40 +1837,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1878,40 +1878,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1981,10 +1981,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="8">
         <v>1.2</v>
@@ -2005,40 +2005,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2046,40 +2046,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2128,40 +2128,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2638,7 +2638,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2647,10 +2647,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2665,13 +2665,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2680,13 +2680,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2848,64 +2848,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8412929983422673E-2</v>
+        <v>-9.8412929983422701E-2</v>
       </c>
       <c r="D2">
-        <v>-0.1942080752484934</v>
+        <v>-0.19420807524849301</v>
       </c>
       <c r="E2">
-        <v>-0.28728564272344731</v>
+        <v>-0.28728564272344698</v>
       </c>
       <c r="F2">
-        <v>-0.37755304896864333</v>
+        <v>-0.377553048968643</v>
       </c>
       <c r="G2">
-        <v>-0.46492383387554881</v>
+        <v>-0.46492383387554898</v>
       </c>
       <c r="H2">
-        <v>-0.54932159929017654</v>
+        <v>-0.54932159929017699</v>
       </c>
       <c r="I2">
-        <v>-0.63067876553525815</v>
+        <v>-0.63067876553525803</v>
       </c>
       <c r="J2">
-        <v>-0.70894012441581555</v>
+        <v>-0.708940124415816</v>
       </c>
       <c r="K2">
-        <v>-0.78406148923502406</v>
+        <v>-0.78406148923502395</v>
       </c>
       <c r="L2">
-        <v>-0.85601271886286734</v>
+        <v>-0.85601271886286701</v>
       </c>
       <c r="M2">
-        <v>-0.92477614172958511</v>
+        <v>-0.924776141729585</v>
       </c>
       <c r="N2">
-        <v>-0.9903489446517677</v>
+        <v>-0.99034894465176804</v>
       </c>
       <c r="O2">
-        <v>-1.0527412974291928</v>
+        <v>-1.0527412974291901</v>
       </c>
       <c r="P2">
-        <v>-1.1119780621753501</v>
+        <v>-1.1119780621753499</v>
       </c>
       <c r="Q2">
-        <v>-1.1680966096192553</v>
+        <v>-1.16809660961926</v>
       </c>
       <c r="R2">
-        <v>-1.2211478782261593</v>
+        <v>-1.22114787822616</v>
       </c>
       <c r="S2">
-        <v>-1.2711939402945136</v>
+        <v>-1.27119394029451</v>
       </c>
       <c r="T2">
-        <v>-1.3183085075595047</v>
+        <v>-1.3183085075595</v>
       </c>
       <c r="U2">
-        <v>-1.3625743578914409</v>
+        <v>-1.36257435789144</v>
       </c>
       <c r="V2">
-        <v>-1.4040833620304658</v>
+        <v>-1.40408336203047</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2916,64 +2916,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696091223346308E-2</v>
+        <v>-6.1696091223346301E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025258602885318</v>
+        <v>-0.120252586028853</v>
       </c>
       <c r="E3">
-        <v>-0.17570925823743866</v>
+        <v>-0.17570925823743899</v>
       </c>
       <c r="F3">
-        <v>-0.22811908883778487</v>
+        <v>-0.22811908883778501</v>
       </c>
       <c r="G3">
-        <v>-0.2775459525177133</v>
+        <v>-0.27754595251771302</v>
       </c>
       <c r="H3">
-        <v>-0.32406507544725888</v>
+        <v>-0.32406507544725899</v>
       </c>
       <c r="I3">
-        <v>-0.36776047794996308</v>
+        <v>-0.36776047794996303</v>
       </c>
       <c r="J3">
-        <v>-0.40872503938046645</v>
+        <v>-0.408725039380466</v>
       </c>
       <c r="K3">
-        <v>-0.44705795146529365</v>
+        <v>-0.44705795146529398</v>
       </c>
       <c r="L3">
-        <v>-0.48286454776000765</v>
+        <v>-0.48286454776000798</v>
       </c>
       <c r="M3">
-        <v>-0.51625390018963269</v>
+        <v>-0.51625390018963302</v>
       </c>
       <c r="N3">
-        <v>-0.54733855698942557</v>
+        <v>-0.54733855698942602</v>
       </c>
       <c r="O3">
-        <v>-0.5762323880658814</v>
+        <v>-0.57623238806588095</v>
       </c>
       <c r="P3">
-        <v>-0.60305034309890171</v>
+        <v>-0.60305034309890204</v>
       </c>
       <c r="Q3">
         <v>-0.62790661236276901</v>
       </c>
       <c r="R3">
-        <v>-0.65091447676253389</v>
+        <v>-0.650914476762534</v>
       </c>
       <c r="S3">
-        <v>-0.67218481027537891</v>
+        <v>-0.67218481027537902</v>
       </c>
       <c r="T3">
-        <v>-0.6918260556745639</v>
+        <v>-0.69182605567456401</v>
       </c>
       <c r="U3">
         <v>-0.70994306056866197</v>
       </c>
       <c r="V3">
-        <v>-0.7266371555834602</v>
+        <v>-0.72663715558345998</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2984,61 +2984,61 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.763343433853287E-2</v>
+        <v>7.7633434338532897E-2</v>
       </c>
       <c r="D4">
-        <v>0.14471642456085543</v>
+        <v>0.14471642456085501</v>
       </c>
       <c r="E4">
-        <v>0.2030191852725608</v>
+        <v>0.20301918527256099</v>
       </c>
       <c r="F4">
         <v>0.253928790212957</v>
       </c>
       <c r="G4">
-        <v>0.29855157268519528</v>
+        <v>0.298551572685195</v>
       </c>
       <c r="H4">
-        <v>0.33778464070026337</v>
+        <v>0.33778464070026298</v>
       </c>
       <c r="I4">
-        <v>0.37236464747643128</v>
+        <v>0.372364647476431</v>
       </c>
       <c r="J4">
-        <v>0.40290422531837922</v>
+        <v>0.40290422531837899</v>
       </c>
       <c r="K4">
-        <v>0.42991748774995053</v>
+        <v>0.42991748774995098</v>
       </c>
       <c r="L4">
-        <v>0.45384027066544097</v>
+        <v>0.45384027066544103</v>
       </c>
       <c r="M4">
-        <v>0.47504444085306174</v>
+        <v>0.47504444085306202</v>
       </c>
       <c r="N4">
-        <v>0.4938499434500927</v>
+        <v>0.49384994345009298</v>
       </c>
       <c r="O4">
         <v>0.51053328719303503</v>
       </c>
       <c r="P4">
-        <v>0.52533513043642643</v>
+        <v>0.52533513043642599</v>
       </c>
       <c r="Q4">
-        <v>0.53846554348009512</v>
+        <v>0.53846554348009501</v>
       </c>
       <c r="R4">
         <v>0.55010901455120098</v>
       </c>
       <c r="S4">
-        <v>0.56042783687828257</v>
+        <v>0.56042783687828301</v>
       </c>
       <c r="T4">
-        <v>0.56956554510763246</v>
+        <v>0.56956554510763202</v>
       </c>
       <c r="U4">
-        <v>0.57764916538047584</v>
+        <v>0.57764916538047595</v>
       </c>
       <c r="V4">
         <v>0.58479164020456298</v>
@@ -3052,64 +3052,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2980988583850534E-2</v>
+        <v>-7.2980988583850506E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14602999858889448</v>
+        <v>-0.14602999858889401</v>
       </c>
       <c r="E5">
-        <v>-0.21903269569277378</v>
+        <v>-0.219032695692774</v>
       </c>
       <c r="F5">
-        <v>-0.2918638282063219</v>
+        <v>-0.29186382820632201</v>
       </c>
       <c r="G5">
-        <v>-0.36439147750852774</v>
+        <v>-0.36439147750852802</v>
       </c>
       <c r="H5">
-        <v>-0.43647957215673194</v>
+        <v>-0.436479572156732</v>
       </c>
       <c r="I5">
-        <v>-0.50799092682281233</v>
+        <v>-0.50799092682281199</v>
       </c>
       <c r="J5">
-        <v>-0.57878887409685043</v>
+        <v>-0.57878887409684998</v>
       </c>
       <c r="K5">
-        <v>-0.64873935187395526</v>
+        <v>-0.64873935187395504</v>
       </c>
       <c r="L5">
-        <v>-0.7177119761548908</v>
+        <v>-0.71771197615489102</v>
       </c>
       <c r="M5">
-        <v>-0.7855814667424269</v>
+        <v>-0.78558146674242701</v>
       </c>
       <c r="N5">
-        <v>-0.85222840797142629</v>
+        <v>-0.85222840797142596</v>
       </c>
       <c r="O5">
-        <v>-0.91754022296033777</v>
+        <v>-0.91754022296033799</v>
       </c>
       <c r="P5">
-        <v>-0.98141177097465349</v>
+        <v>-0.98141177097465304</v>
       </c>
       <c r="Q5">
-        <v>-1.0437459976283139</v>
+        <v>-1.0437459976283101</v>
       </c>
       <c r="R5">
-        <v>-1.1044544350814904</v>
+        <v>-1.10445443508149</v>
       </c>
       <c r="S5">
-        <v>-1.1634575917165046</v>
+        <v>-1.1634575917165</v>
       </c>
       <c r="T5">
-        <v>-1.2206853656180816</v>
+        <v>-1.2206853656180801</v>
       </c>
       <c r="U5">
-        <v>-1.276077197231019</v>
+        <v>-1.2760771972310201</v>
       </c>
       <c r="V5">
-        <v>-1.329582364605177</v>
+        <v>-1.3295823646051801</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test20_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -885,64 +885,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8412929983422701E-2</v>
+        <v>-9.8412929983422673E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420807524849301</v>
+        <v>-0.1942080752484934</v>
       </c>
       <c r="E2">
-        <v>-0.28728564272344698</v>
+        <v>-0.28728564272344731</v>
       </c>
       <c r="F2">
-        <v>-0.377553048968643</v>
+        <v>-0.37755304896864333</v>
       </c>
       <c r="G2">
-        <v>-0.46492383387554898</v>
+        <v>-0.46492383387554881</v>
       </c>
       <c r="H2">
-        <v>-0.54932159929017699</v>
+        <v>-0.54932159929017654</v>
       </c>
       <c r="I2">
-        <v>-0.63067876553525803</v>
+        <v>-0.63067876553525815</v>
       </c>
       <c r="J2">
-        <v>-0.708940124415816</v>
+        <v>-0.70894012441581555</v>
       </c>
       <c r="K2">
-        <v>-0.78406148923502395</v>
+        <v>-0.78406148923502406</v>
       </c>
       <c r="L2">
-        <v>-0.85601271886286701</v>
+        <v>-0.85601271886286734</v>
       </c>
       <c r="M2">
-        <v>-0.924776141729585</v>
+        <v>-0.92477614172958511</v>
       </c>
       <c r="N2">
-        <v>-0.99034894465176804</v>
+        <v>-0.9903489446517677</v>
       </c>
       <c r="O2">
-        <v>-1.0527412974291901</v>
+        <v>-1.0527412974291928</v>
       </c>
       <c r="P2">
-        <v>-1.1119780621753499</v>
+        <v>-1.1119780621753501</v>
       </c>
       <c r="Q2">
-        <v>-1.16809660961926</v>
+        <v>-1.1680966096192553</v>
       </c>
       <c r="R2">
-        <v>-1.22114787822616</v>
+        <v>-1.2211478782261593</v>
       </c>
       <c r="S2">
-        <v>-1.27119394029451</v>
+        <v>-1.2711939402945136</v>
       </c>
       <c r="T2">
-        <v>-1.3183085075595</v>
+        <v>-1.3183085075595047</v>
       </c>
       <c r="U2">
-        <v>-1.36257435789144</v>
+        <v>-1.3625743578914409</v>
       </c>
       <c r="V2">
-        <v>-1.40408336203047</v>
+        <v>-1.4040833620304658</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -953,64 +953,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696091223346301E-2</v>
+        <v>-6.1696091223346308E-2</v>
       </c>
       <c r="D3">
-        <v>-0.120252586028853</v>
+        <v>-0.12025258602885318</v>
       </c>
       <c r="E3">
-        <v>-0.17570925823743899</v>
+        <v>-0.17570925823743866</v>
       </c>
       <c r="F3">
-        <v>-0.22811908883778501</v>
+        <v>-0.22811908883778487</v>
       </c>
       <c r="G3">
-        <v>-0.27754595251771302</v>
+        <v>-0.2775459525177133</v>
       </c>
       <c r="H3">
-        <v>-0.32406507544725899</v>
+        <v>-0.32406507544725888</v>
       </c>
       <c r="I3">
-        <v>-0.36776047794996303</v>
+        <v>-0.36776047794996308</v>
       </c>
       <c r="J3">
-        <v>-0.408725039380466</v>
+        <v>-0.40872503938046645</v>
       </c>
       <c r="K3">
-        <v>-0.44705795146529398</v>
+        <v>-0.44705795146529365</v>
       </c>
       <c r="L3">
-        <v>-0.48286454776000798</v>
+        <v>-0.48286454776000765</v>
       </c>
       <c r="M3">
-        <v>-0.51625390018963302</v>
+        <v>-0.51625390018963269</v>
       </c>
       <c r="N3">
-        <v>-0.54733855698942602</v>
+        <v>-0.54733855698942557</v>
       </c>
       <c r="O3">
-        <v>-0.57623238806588095</v>
+        <v>-0.5762323880658814</v>
       </c>
       <c r="P3">
-        <v>-0.60305034309890204</v>
+        <v>-0.60305034309890171</v>
       </c>
       <c r="Q3">
         <v>-0.62790661236276901</v>
       </c>
       <c r="R3">
-        <v>-0.650914476762534</v>
+        <v>-0.65091447676253389</v>
       </c>
       <c r="S3">
-        <v>-0.67218481027537902</v>
+        <v>-0.67218481027537891</v>
       </c>
       <c r="T3">
-        <v>-0.69182605567456401</v>
+        <v>-0.6918260556745639</v>
       </c>
       <c r="U3">
         <v>-0.70994306056866197</v>
       </c>
       <c r="V3">
-        <v>-0.72663715558345998</v>
+        <v>-0.7266371555834602</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1089,64 +1089,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.9083491483235401E-2</v>
+        <v>-3.9083491483235436E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6102655107033804E-2</v>
+        <v>-7.6102655107033845E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11112396528749301</v>
+        <v>-0.11112396528749263</v>
       </c>
       <c r="F5">
-        <v>-0.14421621345827301</v>
+        <v>-0.14421621345827279</v>
       </c>
       <c r="G5">
-        <v>-0.175449606816167</v>
+        <v>-0.17544960681616664</v>
       </c>
       <c r="H5">
-        <v>-0.20489581238940999</v>
+        <v>-0.20489581238941018</v>
       </c>
       <c r="I5">
-        <v>-0.23262707828520199</v>
+        <v>-0.23262707828520232</v>
       </c>
       <c r="J5">
-        <v>-0.25871623367926999</v>
+        <v>-0.25871623367926971</v>
       </c>
       <c r="K5">
-        <v>-0.28323589661767001</v>
+        <v>-0.28323589661767029</v>
       </c>
       <c r="L5">
-        <v>-0.306258464187249</v>
+        <v>-0.30625846418724856</v>
       </c>
       <c r="M5">
-        <v>-0.327855422903507</v>
+        <v>-0.32785542290350661</v>
       </c>
       <c r="N5">
-        <v>-0.34809735264286001</v>
+        <v>-0.34809735264285985</v>
       </c>
       <c r="O5">
         <v>-0.36705334655365301</v>
       </c>
       <c r="P5">
-        <v>-0.38479104240324302</v>
+        <v>-0.38479104240324286</v>
       </c>
       <c r="Q5">
-        <v>-0.401376151002175</v>
+        <v>-0.40137615100217511</v>
       </c>
       <c r="R5">
-        <v>-0.416872520442712</v>
+        <v>-0.41687252044271228</v>
       </c>
       <c r="S5">
-        <v>-0.43134176597315399</v>
+        <v>-0.43134176597315432</v>
       </c>
       <c r="T5">
-        <v>-0.44484336659611401</v>
+        <v>-0.44484336659611362</v>
       </c>
       <c r="U5">
-        <v>-0.45743438537443598</v>
+        <v>-0.45743438537443554</v>
       </c>
       <c r="V5">
-        <v>-0.46916958492083299</v>
+        <v>-0.46916958492083255</v>
       </c>
     </row>
   </sheetData>
@@ -1186,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.48122334856960097</v>
+        <v>0.4812233485696007</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24686213681952701</v>
+        <v>0.24686213681952676</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.69601016605714106</v>
+        <v>0.6960101660571415</v>
       </c>
       <c r="E4">
-        <v>0.62781151303092997</v>
+        <v>0.62781151303093019</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97491628418018605</v>
+        <v>-0.97491628418018572</v>
       </c>
       <c r="E5">
-        <v>0.95335675496805905</v>
+        <v>0.95335675496805927</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.88215425231969E-5</v>
+        <v>2.882154252319693E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.50507418939260795</v>
+        <v>0.50507418939260773</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1525,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7.0803544118578901E-6</v>
+        <v>7.0803544118578935E-6</v>
       </c>
       <c r="C8">
-        <v>1.4160708823715801E-5</v>
+        <v>1.4160708823715787E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,10 +1536,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.2772902404691501E-7</v>
+        <v>6.2772902404691512E-7</v>
       </c>
       <c r="C9">
-        <v>1.25545804809383E-6</v>
+        <v>1.2554580480938302E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.4483111732145899E-4</v>
+        <v>1.4483111732145924E-4</v>
       </c>
       <c r="C10">
-        <v>1.4483111732145899E-4</v>
+        <v>1.4483111732145924E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1558,10 +1558,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.0186139513514099E-5</v>
+        <v>1.0186139513514077E-5</v>
       </c>
       <c r="C11">
-        <v>1.16439524029422E-4</v>
+        <v>1.1643952402942169E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1755,40 +1757,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1796,40 +1798,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1837,40 +1839,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1878,40 +1880,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1954,7 +1956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2005,40 +2009,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2046,40 +2050,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2128,40 +2132,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2638,7 +2642,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2647,10 +2651,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2665,13 +2669,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2680,13 +2684,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2848,64 +2852,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8412929983422701E-2</v>
+        <v>-9.8412929983422673E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420807524849301</v>
+        <v>-0.1942080752484934</v>
       </c>
       <c r="E2">
-        <v>-0.28728564272344698</v>
+        <v>-0.28728564272344731</v>
       </c>
       <c r="F2">
-        <v>-0.377553048968643</v>
+        <v>-0.37755304896864333</v>
       </c>
       <c r="G2">
-        <v>-0.46492383387554898</v>
+        <v>-0.46492383387554881</v>
       </c>
       <c r="H2">
-        <v>-0.54932159929017699</v>
+        <v>-0.54932159929017654</v>
       </c>
       <c r="I2">
-        <v>-0.63067876553525803</v>
+        <v>-0.63067876553525815</v>
       </c>
       <c r="J2">
-        <v>-0.708940124415816</v>
+        <v>-0.70894012441581555</v>
       </c>
       <c r="K2">
-        <v>-0.78406148923502395</v>
+        <v>-0.78406148923502406</v>
       </c>
       <c r="L2">
-        <v>-0.85601271886286701</v>
+        <v>-0.85601271886286734</v>
       </c>
       <c r="M2">
-        <v>-0.924776141729585</v>
+        <v>-0.92477614172958511</v>
       </c>
       <c r="N2">
-        <v>-0.99034894465176804</v>
+        <v>-0.9903489446517677</v>
       </c>
       <c r="O2">
-        <v>-1.0527412974291901</v>
+        <v>-1.0527412974291928</v>
       </c>
       <c r="P2">
-        <v>-1.1119780621753499</v>
+        <v>-1.1119780621753501</v>
       </c>
       <c r="Q2">
-        <v>-1.16809660961926</v>
+        <v>-1.1680966096192553</v>
       </c>
       <c r="R2">
-        <v>-1.22114787822616</v>
+        <v>-1.2211478782261593</v>
       </c>
       <c r="S2">
-        <v>-1.27119394029451</v>
+        <v>-1.2711939402945136</v>
       </c>
       <c r="T2">
-        <v>-1.3183085075595</v>
+        <v>-1.3183085075595047</v>
       </c>
       <c r="U2">
-        <v>-1.36257435789144</v>
+        <v>-1.3625743578914409</v>
       </c>
       <c r="V2">
-        <v>-1.40408336203047</v>
+        <v>-1.4040833620304658</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2916,64 +2920,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696091223346301E-2</v>
+        <v>-6.1696091223346308E-2</v>
       </c>
       <c r="D3">
-        <v>-0.120252586028853</v>
+        <v>-0.12025258602885318</v>
       </c>
       <c r="E3">
-        <v>-0.17570925823743899</v>
+        <v>-0.17570925823743866</v>
       </c>
       <c r="F3">
-        <v>-0.22811908883778501</v>
+        <v>-0.22811908883778487</v>
       </c>
       <c r="G3">
-        <v>-0.27754595251771302</v>
+        <v>-0.2775459525177133</v>
       </c>
       <c r="H3">
-        <v>-0.32406507544725899</v>
+        <v>-0.32406507544725888</v>
       </c>
       <c r="I3">
-        <v>-0.36776047794996303</v>
+        <v>-0.36776047794996308</v>
       </c>
       <c r="J3">
-        <v>-0.408725039380466</v>
+        <v>-0.40872503938046645</v>
       </c>
       <c r="K3">
-        <v>-0.44705795146529398</v>
+        <v>-0.44705795146529365</v>
       </c>
       <c r="L3">
-        <v>-0.48286454776000798</v>
+        <v>-0.48286454776000765</v>
       </c>
       <c r="M3">
-        <v>-0.51625390018963302</v>
+        <v>-0.51625390018963269</v>
       </c>
       <c r="N3">
-        <v>-0.54733855698942602</v>
+        <v>-0.54733855698942557</v>
       </c>
       <c r="O3">
-        <v>-0.57623238806588095</v>
+        <v>-0.5762323880658814</v>
       </c>
       <c r="P3">
-        <v>-0.60305034309890204</v>
+        <v>-0.60305034309890171</v>
       </c>
       <c r="Q3">
         <v>-0.62790661236276901</v>
       </c>
       <c r="R3">
-        <v>-0.650914476762534</v>
+        <v>-0.65091447676253389</v>
       </c>
       <c r="S3">
-        <v>-0.67218481027537902</v>
+        <v>-0.67218481027537891</v>
       </c>
       <c r="T3">
-        <v>-0.69182605567456401</v>
+        <v>-0.6918260556745639</v>
       </c>
       <c r="U3">
         <v>-0.70994306056866197</v>
       </c>
       <c r="V3">
-        <v>-0.72663715558345998</v>
+        <v>-0.7266371555834602</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2984,61 +2988,61 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7633434338532897E-2</v>
+        <v>7.763343433853287E-2</v>
       </c>
       <c r="D4">
-        <v>0.14471642456085501</v>
+        <v>0.14471642456085543</v>
       </c>
       <c r="E4">
-        <v>0.20301918527256099</v>
+        <v>0.2030191852725608</v>
       </c>
       <c r="F4">
         <v>0.253928790212957</v>
       </c>
       <c r="G4">
-        <v>0.298551572685195</v>
+        <v>0.29855157268519528</v>
       </c>
       <c r="H4">
-        <v>0.33778464070026298</v>
+        <v>0.33778464070026337</v>
       </c>
       <c r="I4">
-        <v>0.372364647476431</v>
+        <v>0.37236464747643128</v>
       </c>
       <c r="J4">
-        <v>0.40290422531837899</v>
+        <v>0.40290422531837922</v>
       </c>
       <c r="K4">
-        <v>0.42991748774995098</v>
+        <v>0.42991748774995053</v>
       </c>
       <c r="L4">
-        <v>0.45384027066544103</v>
+        <v>0.45384027066544097</v>
       </c>
       <c r="M4">
-        <v>0.47504444085306202</v>
+        <v>0.47504444085306174</v>
       </c>
       <c r="N4">
-        <v>0.49384994345009298</v>
+        <v>0.4938499434500927</v>
       </c>
       <c r="O4">
         <v>0.51053328719303503</v>
       </c>
       <c r="P4">
-        <v>0.52533513043642599</v>
+        <v>0.52533513043642643</v>
       </c>
       <c r="Q4">
-        <v>0.53846554348009501</v>
+        <v>0.53846554348009512</v>
       </c>
       <c r="R4">
         <v>0.55010901455120098</v>
       </c>
       <c r="S4">
-        <v>0.56042783687828301</v>
+        <v>0.56042783687828257</v>
       </c>
       <c r="T4">
-        <v>0.56956554510763202</v>
+        <v>0.56956554510763246</v>
       </c>
       <c r="U4">
-        <v>0.57764916538047595</v>
+        <v>0.57764916538047584</v>
       </c>
       <c r="V4">
         <v>0.58479164020456298</v>
@@ -3052,64 +3056,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2980988583850506E-2</v>
+        <v>-7.2980988583850534E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14602999858889401</v>
+        <v>-0.14602999858889448</v>
       </c>
       <c r="E5">
-        <v>-0.219032695692774</v>
+        <v>-0.21903269569277378</v>
       </c>
       <c r="F5">
-        <v>-0.29186382820632201</v>
+        <v>-0.2918638282063219</v>
       </c>
       <c r="G5">
-        <v>-0.36439147750852802</v>
+        <v>-0.36439147750852774</v>
       </c>
       <c r="H5">
-        <v>-0.436479572156732</v>
+        <v>-0.43647957215673194</v>
       </c>
       <c r="I5">
-        <v>-0.50799092682281199</v>
+        <v>-0.50799092682281233</v>
       </c>
       <c r="J5">
-        <v>-0.57878887409684998</v>
+        <v>-0.57878887409685043</v>
       </c>
       <c r="K5">
-        <v>-0.64873935187395504</v>
+        <v>-0.64873935187395526</v>
       </c>
       <c r="L5">
-        <v>-0.71771197615489102</v>
+        <v>-0.7177119761548908</v>
       </c>
       <c r="M5">
-        <v>-0.78558146674242701</v>
+        <v>-0.7855814667424269</v>
       </c>
       <c r="N5">
-        <v>-0.85222840797142596</v>
+        <v>-0.85222840797142629</v>
       </c>
       <c r="O5">
-        <v>-0.91754022296033799</v>
+        <v>-0.91754022296033777</v>
       </c>
       <c r="P5">
-        <v>-0.98141177097465304</v>
+        <v>-0.98141177097465349</v>
       </c>
       <c r="Q5">
-        <v>-1.0437459976283101</v>
+        <v>-1.0437459976283139</v>
       </c>
       <c r="R5">
-        <v>-1.10445443508149</v>
+        <v>-1.1044544350814904</v>
       </c>
       <c r="S5">
-        <v>-1.1634575917165</v>
+        <v>-1.1634575917165046</v>
       </c>
       <c r="T5">
-        <v>-1.2206853656180801</v>
+        <v>-1.2206853656180816</v>
       </c>
       <c r="U5">
-        <v>-1.2760771972310201</v>
+        <v>-1.276077197231019</v>
       </c>
       <c r="V5">
-        <v>-1.3295823646051801</v>
+        <v>-1.329582364605177</v>
       </c>
     </row>
   </sheetData>
